--- a/Data/TestData/CalendarData.xlsx
+++ b/Data/TestData/CalendarData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>testId</t>
   </si>
@@ -34,7 +34,13 @@
     <t>user_password</t>
   </si>
   <si>
-    <t>leavemuster_001</t>
+    <t>holidaysDate</t>
+  </si>
+  <si>
+    <t>holidayReson</t>
+  </si>
+  <si>
+    <t>calendar_001</t>
   </si>
   <si>
     <t>modules.calendar.tests.CalendarTest</t>
@@ -43,13 +49,13 @@
     <t>EditCalendar</t>
   </si>
   <si>
-    <t>SyncLeaveMuster,AddLeaves,</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Independence Day</t>
   </si>
 </sst>
 </file>
@@ -57,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -93,14 +99,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,7 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,14 +115,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,16 +130,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,9 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,22 +192,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +214,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,139 +407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,30 +480,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,164 +509,184 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,22 +1018,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="37.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
@@ -1092,26 +1098,36 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="5"/>
       <c r="AC2" s="6"/>
@@ -1132,6 +1148,9 @@
     <row r="11" spans="10:10">
       <c r="J11" s="3"/>
     </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Data/TestData/CalendarData.xlsx
+++ b/Data/TestData/CalendarData.xlsx
@@ -63,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -114,14 +114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -129,6 +121,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,14 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -152,14 +152,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,65 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,21 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,6 +469,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,15 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +510,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,18 +518,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,130 +563,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1116,7 +1116,6 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>11</v>
       </c>
